--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37279.58662012109</v>
+        <v>37248.78918274488</v>
       </c>
       <c r="J2" t="n">
-        <v>39182.60660328207</v>
+        <v>39413.73062169459</v>
       </c>
       <c r="K2" t="n">
-        <v>41064.79988366117</v>
+        <v>41355.22345268817</v>
       </c>
       <c r="L2" t="n">
-        <v>43233.11170906063</v>
+        <v>43576.83859812782</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>24815.11630073882</v>
+        <v>25290.97416248047</v>
       </c>
       <c r="J3" t="n">
-        <v>26306.27903211277</v>
+        <v>26764.18910046628</v>
       </c>
       <c r="K3" t="n">
-        <v>27481.73066732732</v>
+        <v>28199.41953588051</v>
       </c>
       <c r="L3" t="n">
-        <v>29301.33879476719</v>
+        <v>29083.52689487259</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>12464.47031938227</v>
+        <v>11957.81502026441</v>
       </c>
       <c r="J4" t="n">
-        <v>12876.3275711693</v>
+        <v>12649.54152122832</v>
       </c>
       <c r="K4" t="n">
-        <v>13583.06921633385</v>
+        <v>13155.80391680766</v>
       </c>
       <c r="L4" t="n">
-        <v>13931.77291429344</v>
+        <v>14493.31170325523</v>
       </c>
     </row>
     <row r="5">
@@ -600,277 +600,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4801.5</v>
+        <v>4180.5</v>
       </c>
       <c r="C5" t="n">
-        <v>5250.75</v>
+        <v>4565.25</v>
       </c>
       <c r="D5" t="n">
-        <v>5214</v>
+        <v>4538.25</v>
       </c>
       <c r="E5" t="n">
-        <v>4703</v>
+        <v>4139.25</v>
       </c>
       <c r="F5" t="n">
-        <v>4020.5</v>
+        <v>3579</v>
       </c>
       <c r="G5" t="n">
-        <v>3880.75</v>
+        <v>3598.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4311</v>
+        <v>3910.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4216.005736564738</v>
+        <v>4548.705166541448</v>
       </c>
       <c r="J5" t="n">
-        <v>5062.646750502897</v>
+        <v>4815.17411349998</v>
       </c>
       <c r="K5" t="n">
-        <v>4735.709851460771</v>
+        <v>4960.219957994929</v>
       </c>
       <c r="L5" t="n">
-        <v>5415.321170642119</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Depr</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1115</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1116</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1002</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1223</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1204</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1119.333205844046</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1369.547727214311</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1100.856806848753</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1264.049529270046</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SubT_OperatingProfit</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5793.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6024.25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6426</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6579</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5445.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5894.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6126</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7129.131376973485</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6444.133093452095</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7746.502558024325</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7252.402214381272</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>IntExp</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>338</v>
-      </c>
-      <c r="C8" t="n">
-        <v>316</v>
-      </c>
-      <c r="D8" t="n">
-        <v>367</v>
-      </c>
-      <c r="E8" t="n">
-        <v>357</v>
-      </c>
-      <c r="F8" t="n">
-        <v>359</v>
-      </c>
-      <c r="G8" t="n">
-        <v>343</v>
-      </c>
-      <c r="H8" t="n">
-        <v>414</v>
-      </c>
-      <c r="I8" t="n">
-        <v>426.4200000000003</v>
-      </c>
-      <c r="J8" t="n">
-        <v>439.2126000000003</v>
-      </c>
-      <c r="K8" t="n">
-        <v>452.388978</v>
-      </c>
-      <c r="L8" t="n">
-        <v>465.96064734</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>SubT_PretaxProfit</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5455.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5708.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6059</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6222</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5086.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5551.25</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5712</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6702.711376973485</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6004.920493452095</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7294.113580024326</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6786.441567041272</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>TaxExp</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1601</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5362</v>
-      </c>
-      <c r="D10" t="n">
-        <v>659</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1329</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1147</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1625</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1412</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5380.153156467351</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4279.344145173965</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1901.039587214584</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2319.753529010167</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>SubT_NetIncome</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3854.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>346.25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4893</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3939.5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3926.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4300</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1322.558220506135</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1725.576348278129</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5393.073992809741</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4466.688038031105</v>
+        <v>5297.681874943332</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37248.78918274488</v>
+        <v>37297.88567850719</v>
       </c>
       <c r="J2" t="n">
-        <v>39413.73062169459</v>
+        <v>39822.90474559829</v>
       </c>
       <c r="K2" t="n">
-        <v>41355.22345268817</v>
+        <v>41805.36504430865</v>
       </c>
       <c r="L2" t="n">
-        <v>43576.83859812782</v>
+        <v>45181.43038563431</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>25290.97416248047</v>
+        <v>24633.4424335792</v>
       </c>
       <c r="J3" t="n">
-        <v>26764.18910046628</v>
+        <v>27182.7411962928</v>
       </c>
       <c r="K3" t="n">
-        <v>28199.41953588051</v>
+        <v>28756.67499913563</v>
       </c>
       <c r="L3" t="n">
-        <v>29083.52689487259</v>
+        <v>29731.10088452011</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>11957.81502026441</v>
+        <v>12664.44324492799</v>
       </c>
       <c r="J4" t="n">
-        <v>12649.54152122832</v>
+        <v>12640.16354930549</v>
       </c>
       <c r="K4" t="n">
-        <v>13155.80391680766</v>
+        <v>13048.69004517303</v>
       </c>
       <c r="L4" t="n">
-        <v>14493.31170325523</v>
+        <v>15450.3295011142</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,256 @@
         <v>3910.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4548.705166541448</v>
+        <v>4476.502509439862</v>
       </c>
       <c r="J5" t="n">
-        <v>4815.17411349998</v>
+        <v>4786.414429005644</v>
       </c>
       <c r="K5" t="n">
-        <v>4960.219957994929</v>
+        <v>5066.157923354082</v>
       </c>
       <c r="L5" t="n">
-        <v>5297.681874943332</v>
+        <v>5395.619703000849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Depr</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1116</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1088</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1223</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1204</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1044.968591922981</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1076.37741892352</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1176.425625369511</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1122.647824225635</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SubT_OperatingProfit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7444.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7824.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8217.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8230.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7399.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7730.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8187.940735488127</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7853.749120299845</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7982.532121818944</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10054.70979811336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>IntExp</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>338</v>
+      </c>
+      <c r="C8" t="n">
+        <v>316</v>
+      </c>
+      <c r="D8" t="n">
+        <v>367</v>
+      </c>
+      <c r="E8" t="n">
+        <v>357</v>
+      </c>
+      <c r="F8" t="n">
+        <v>359</v>
+      </c>
+      <c r="G8" t="n">
+        <v>343</v>
+      </c>
+      <c r="H8" t="n">
+        <v>414</v>
+      </c>
+      <c r="I8" t="n">
+        <v>426.4199999999998</v>
+      </c>
+      <c r="J8" t="n">
+        <v>439.2126</v>
+      </c>
+      <c r="K8" t="n">
+        <v>452.388978</v>
+      </c>
+      <c r="L8" t="n">
+        <v>465.96064734</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SubT_PretaxProfit</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7106.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7508.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7850.75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7873.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6530</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7056.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7316.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7761.520735488127</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7414.536520299846</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7530.143143818944</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9588.749150773356</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>TaxExp</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1601</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5362</v>
+      </c>
+      <c r="D10" t="n">
+        <v>659</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1147</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1412</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2955.046188508341</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1309.818070856188</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2559.435222980348</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4572.573344621288</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SubT_NetIncome</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5505.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2146.75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7191.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6544.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5383</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5431.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5904.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4806.474546979785</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6104.718449443657</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4970.707920838595</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5016.175806152068</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37297.88567850719</v>
+        <v>37398.73723558557</v>
       </c>
       <c r="J2" t="n">
-        <v>39822.90474559829</v>
+        <v>39519.64308113594</v>
       </c>
       <c r="K2" t="n">
-        <v>41805.36504430865</v>
+        <v>41588.84833593812</v>
       </c>
       <c r="L2" t="n">
-        <v>45181.43038563431</v>
+        <v>44311.99947671084</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>24633.4424335792</v>
+        <v>25807.73149358344</v>
       </c>
       <c r="J3" t="n">
-        <v>27182.7411962928</v>
+        <v>26285.00036118416</v>
       </c>
       <c r="K3" t="n">
-        <v>28756.67499913563</v>
+        <v>28204.35974052246</v>
       </c>
       <c r="L3" t="n">
-        <v>29731.10088452011</v>
+        <v>30105.21109393811</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>12664.44324492799</v>
+        <v>11591.00574200213</v>
       </c>
       <c r="J4" t="n">
-        <v>12640.16354930549</v>
+        <v>13234.64271995178</v>
       </c>
       <c r="K4" t="n">
-        <v>13048.69004517303</v>
+        <v>13384.48859541566</v>
       </c>
       <c r="L4" t="n">
-        <v>15450.3295011142</v>
+        <v>14206.78838277273</v>
       </c>
     </row>
     <row r="5">
@@ -600,37 +600,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4180.5</v>
+        <v>4801.5</v>
       </c>
       <c r="C5" t="n">
-        <v>4565.25</v>
+        <v>5250.75</v>
       </c>
       <c r="D5" t="n">
-        <v>4538.25</v>
+        <v>5214</v>
       </c>
       <c r="E5" t="n">
-        <v>4139.25</v>
+        <v>4703</v>
       </c>
       <c r="F5" t="n">
-        <v>3579</v>
+        <v>4020.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3598.5</v>
+        <v>3880.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3910.5</v>
+        <v>4311</v>
       </c>
       <c r="I5" t="n">
-        <v>4476.502509439862</v>
+        <v>4641.833213982881</v>
       </c>
       <c r="J5" t="n">
-        <v>4786.414429005644</v>
+        <v>4642.301101956276</v>
       </c>
       <c r="K5" t="n">
-        <v>5066.157923354082</v>
+        <v>4878.52695215944</v>
       </c>
       <c r="L5" t="n">
-        <v>5395.619703000849</v>
+        <v>5045.260056008801</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>1204</v>
       </c>
       <c r="I6" t="n">
-        <v>1044.968591922981</v>
+        <v>1093.660544532345</v>
       </c>
       <c r="J6" t="n">
-        <v>1076.37741892352</v>
+        <v>1131.054308584591</v>
       </c>
       <c r="K6" t="n">
-        <v>1176.425625369511</v>
+        <v>1152.661721311266</v>
       </c>
       <c r="L6" t="n">
-        <v>1122.647824225635</v>
+        <v>1020.318229907231</v>
       </c>
     </row>
     <row r="7">
@@ -680,37 +680,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7444.5</v>
+        <v>6051</v>
       </c>
       <c r="C7" t="n">
-        <v>7824.75</v>
+        <v>6303</v>
       </c>
       <c r="D7" t="n">
-        <v>8217.75</v>
+        <v>6705</v>
       </c>
       <c r="E7" t="n">
-        <v>8230.75</v>
+        <v>6851</v>
       </c>
       <c r="F7" t="n">
-        <v>6889</v>
+        <v>5696</v>
       </c>
       <c r="G7" t="n">
-        <v>7399.5</v>
+        <v>6200</v>
       </c>
       <c r="H7" t="n">
-        <v>7730.5</v>
+        <v>6427</v>
       </c>
       <c r="I7" t="n">
-        <v>8187.940735488127</v>
+        <v>6128.927119619993</v>
       </c>
       <c r="J7" t="n">
-        <v>7853.749120299845</v>
+        <v>7744.050886557062</v>
       </c>
       <c r="K7" t="n">
-        <v>7982.532121818944</v>
+        <v>7641.465352272774</v>
       </c>
       <c r="L7" t="n">
-        <v>10054.70979811336</v>
+        <v>8396.289654333503</v>
       </c>
     </row>
     <row r="8">
@@ -741,13 +741,13 @@
         <v>414</v>
       </c>
       <c r="I8" t="n">
-        <v>426.4199999999998</v>
+        <v>426.4199999999999</v>
       </c>
       <c r="J8" t="n">
         <v>439.2126</v>
       </c>
       <c r="K8" t="n">
-        <v>452.388978</v>
+        <v>452.3889779999999</v>
       </c>
       <c r="L8" t="n">
         <v>465.96064734</v>
@@ -756,121 +756,161 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SubT_PretaxProfit</t>
+          <t>OthInc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7106.5</v>
+        <v>-102</v>
       </c>
       <c r="C9" t="n">
-        <v>7508.75</v>
+        <v>-963</v>
       </c>
       <c r="D9" t="n">
-        <v>7850.75</v>
+        <v>-1149</v>
       </c>
       <c r="E9" t="n">
-        <v>7873.75</v>
+        <v>-1065</v>
       </c>
       <c r="F9" t="n">
-        <v>6530</v>
+        <v>-675</v>
       </c>
       <c r="G9" t="n">
-        <v>7056.5</v>
+        <v>-1378</v>
       </c>
       <c r="H9" t="n">
-        <v>7316.5</v>
+        <v>-366</v>
       </c>
       <c r="I9" t="n">
-        <v>7761.520735488127</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7414.536520299846</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7530.143143818944</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>9588.749150773356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TaxExp</t>
+          <t>SubT_PretaxProfit</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1601</v>
+        <v>5815</v>
       </c>
       <c r="C10" t="n">
-        <v>5362</v>
+        <v>6950</v>
       </c>
       <c r="D10" t="n">
-        <v>659</v>
+        <v>7487</v>
       </c>
       <c r="E10" t="n">
-        <v>1329</v>
+        <v>7559</v>
       </c>
       <c r="F10" t="n">
-        <v>1147</v>
+        <v>6012</v>
       </c>
       <c r="G10" t="n">
-        <v>1625</v>
+        <v>7235</v>
       </c>
       <c r="H10" t="n">
-        <v>1412</v>
+        <v>6379</v>
       </c>
       <c r="I10" t="n">
-        <v>2955.046188508341</v>
+        <v>5702.507119619993</v>
       </c>
       <c r="J10" t="n">
-        <v>1309.818070856188</v>
+        <v>7304.838286557062</v>
       </c>
       <c r="K10" t="n">
-        <v>2559.435222980348</v>
+        <v>7189.076374272774</v>
       </c>
       <c r="L10" t="n">
-        <v>4572.573344621288</v>
+        <v>7930.329006993503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>TaxExp</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1601</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5362</v>
+      </c>
+      <c r="D11" t="n">
+        <v>659</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1147</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1625</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1412</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1586.4443279578</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2032.214782597182</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2000.009679598697</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2206.227052079935</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>SubT_NetIncome</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>5505.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2146.75</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7191.75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6544.75</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5383</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5431.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5904.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4806.474546979785</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6104.718449443657</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4970.707920838595</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5016.175806152068</v>
+      <c r="B12" t="n">
+        <v>4214</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6828</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6230</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4865</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5610</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4967</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4116.062791662192</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5272.62350395988</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5189.066694674077</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5724.101954913568</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37398.73723558557</v>
+        <v>37859.2359907571</v>
       </c>
       <c r="J2" t="n">
-        <v>39519.64308113594</v>
+        <v>40087.73786347411</v>
       </c>
       <c r="K2" t="n">
-        <v>41588.84833593812</v>
+        <v>42192.48077088234</v>
       </c>
       <c r="L2" t="n">
-        <v>44311.99947671084</v>
+        <v>44647.67883758998</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>25807.73149358344</v>
+        <v>25386.61009711743</v>
       </c>
       <c r="J3" t="n">
-        <v>26285.00036118416</v>
+        <v>27219.01086735362</v>
       </c>
       <c r="K3" t="n">
-        <v>28204.35974052246</v>
+        <v>27663.13305023291</v>
       </c>
       <c r="L3" t="n">
-        <v>30105.21109393811</v>
+        <v>30034.5843773161</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>11591.00574200213</v>
+        <v>12472.62589363967</v>
       </c>
       <c r="J4" t="n">
-        <v>13234.64271995178</v>
+        <v>12868.72699612049</v>
       </c>
       <c r="K4" t="n">
-        <v>13384.48859541566</v>
+        <v>14529.34772064942</v>
       </c>
       <c r="L4" t="n">
-        <v>14206.78838277273</v>
+        <v>14613.09446027388</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>4311</v>
       </c>
       <c r="I5" t="n">
-        <v>4641.833213982881</v>
+        <v>4906.675684215129</v>
       </c>
       <c r="J5" t="n">
-        <v>4642.301101956276</v>
+        <v>5031.57599108442</v>
       </c>
       <c r="K5" t="n">
-        <v>4878.52695215944</v>
+        <v>5146.502037037279</v>
       </c>
       <c r="L5" t="n">
-        <v>5045.260056008801</v>
+        <v>5231.832464624174</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>1204</v>
       </c>
       <c r="I6" t="n">
-        <v>1093.660544532345</v>
+        <v>1088.941619119363</v>
       </c>
       <c r="J6" t="n">
-        <v>1131.054308584591</v>
+        <v>1095.008821139874</v>
       </c>
       <c r="K6" t="n">
-        <v>1152.661721311266</v>
+        <v>1329.494032866168</v>
       </c>
       <c r="L6" t="n">
-        <v>1020.318229907231</v>
+        <v>1340.091364111645</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>6427</v>
       </c>
       <c r="I7" t="n">
-        <v>6128.927119619993</v>
+        <v>6749.243995085018</v>
       </c>
       <c r="J7" t="n">
-        <v>7744.050886557062</v>
+        <v>7015.894389181166</v>
       </c>
       <c r="K7" t="n">
-        <v>7641.465352272774</v>
+        <v>8385.725158962516</v>
       </c>
       <c r="L7" t="n">
-        <v>8396.289654333503</v>
+        <v>8376.19347256597</v>
       </c>
     </row>
     <row r="8">
@@ -747,7 +747,7 @@
         <v>439.2126</v>
       </c>
       <c r="K8" t="n">
-        <v>452.3889779999999</v>
+        <v>452.3889780000001</v>
       </c>
       <c r="L8" t="n">
         <v>465.96064734</v>
@@ -821,16 +821,16 @@
         <v>6379</v>
       </c>
       <c r="I10" t="n">
-        <v>5702.507119619993</v>
+        <v>6322.823995085018</v>
       </c>
       <c r="J10" t="n">
-        <v>7304.838286557062</v>
+        <v>6576.681789181166</v>
       </c>
       <c r="K10" t="n">
-        <v>7189.076374272774</v>
+        <v>7933.336180962516</v>
       </c>
       <c r="L10" t="n">
-        <v>7930.329006993503</v>
+        <v>7910.23282522597</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>1412</v>
       </c>
       <c r="I11" t="n">
-        <v>1586.4443279578</v>
+        <v>1759.017227557016</v>
       </c>
       <c r="J11" t="n">
-        <v>2032.214782597182</v>
+        <v>1829.640770694048</v>
       </c>
       <c r="K11" t="n">
-        <v>2000.009679598697</v>
+        <v>2207.063651488975</v>
       </c>
       <c r="L11" t="n">
-        <v>2206.227052079935</v>
+        <v>2200.636270181738</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,56 @@
         <v>4967</v>
       </c>
       <c r="I12" t="n">
-        <v>4116.062791662192</v>
+        <v>4563.806767528002</v>
       </c>
       <c r="J12" t="n">
-        <v>5272.62350395988</v>
+        <v>4747.041018487118</v>
       </c>
       <c r="K12" t="n">
-        <v>5189.066694674077</v>
+        <v>5726.272529473541</v>
       </c>
       <c r="L12" t="n">
-        <v>5724.101954913568</v>
+        <v>5709.596555044232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>775.6451612903226</v>
+      </c>
+      <c r="C13" t="n">
+        <v>772.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>753.3407572383073</v>
+      </c>
+      <c r="E13" t="n">
+        <v>730.4399524375743</v>
+      </c>
+      <c r="F13" t="n">
+        <v>711.1607142857143</v>
+      </c>
+      <c r="G13" t="n">
+        <v>700.6321112515802</v>
+      </c>
+      <c r="H13" t="n">
+        <v>683.0811554332876</v>
+      </c>
+      <c r="I13" t="n">
+        <v>661.1386515870399</v>
+      </c>
+      <c r="J13" t="n">
+        <v>635.8849804626241</v>
+      </c>
+      <c r="K13" t="n">
+        <v>619.9621550615594</v>
+      </c>
+      <c r="L13" t="n">
+        <v>589.9717671559304</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37859.2359907571</v>
+        <v>37573.42029595308</v>
       </c>
       <c r="J2" t="n">
-        <v>40087.73786347411</v>
+        <v>39504.94880574507</v>
       </c>
       <c r="K2" t="n">
-        <v>42192.48077088234</v>
+        <v>41775.05756889316</v>
       </c>
       <c r="L2" t="n">
-        <v>44647.67883758998</v>
+        <v>44111.92671599253</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>25386.61009711743</v>
+        <v>25522.69955892515</v>
       </c>
       <c r="J3" t="n">
-        <v>27219.01086735362</v>
+        <v>26766.56322744709</v>
       </c>
       <c r="K3" t="n">
-        <v>27663.13305023291</v>
+        <v>28026.54928119954</v>
       </c>
       <c r="L3" t="n">
-        <v>30034.5843773161</v>
+        <v>29897.77775339435</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>12472.62589363967</v>
+        <v>12050.72073702793</v>
       </c>
       <c r="J4" t="n">
-        <v>12868.72699612049</v>
+        <v>12738.38557829797</v>
       </c>
       <c r="K4" t="n">
-        <v>14529.34772064942</v>
+        <v>13748.50828769361</v>
       </c>
       <c r="L4" t="n">
-        <v>14613.09446027388</v>
+        <v>14214.14896259818</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>4311</v>
       </c>
       <c r="I5" t="n">
-        <v>4906.675684215129</v>
+        <v>4291.749199341269</v>
       </c>
       <c r="J5" t="n">
-        <v>5031.57599108442</v>
+        <v>4883.666966530312</v>
       </c>
       <c r="K5" t="n">
-        <v>5146.502037037279</v>
+        <v>4944.961701493958</v>
       </c>
       <c r="L5" t="n">
-        <v>5231.832464624174</v>
+        <v>5384.531025349157</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>1204</v>
       </c>
       <c r="I6" t="n">
-        <v>1088.941619119363</v>
+        <v>1183.034545870928</v>
       </c>
       <c r="J6" t="n">
-        <v>1095.008821139874</v>
+        <v>1077.439950419135</v>
       </c>
       <c r="K6" t="n">
-        <v>1329.494032866168</v>
+        <v>1144.211504315536</v>
       </c>
       <c r="L6" t="n">
-        <v>1340.091364111645</v>
+        <v>1033.743098444153</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>6427</v>
       </c>
       <c r="I7" t="n">
-        <v>6749.243995085018</v>
+        <v>6871.695628283467</v>
       </c>
       <c r="J7" t="n">
-        <v>7015.894389181166</v>
+        <v>7046.638648953311</v>
       </c>
       <c r="K7" t="n">
-        <v>8385.725158962516</v>
+        <v>7945.387957963005</v>
       </c>
       <c r="L7" t="n">
-        <v>8376.19347256597</v>
+        <v>8054.310613415906</v>
       </c>
     </row>
     <row r="8">
@@ -744,13 +744,13 @@
         <v>426.4199999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>439.2126</v>
+        <v>439.2125999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>452.3889780000001</v>
+        <v>452.388978</v>
       </c>
       <c r="L8" t="n">
-        <v>465.96064734</v>
+        <v>465.9606473399999</v>
       </c>
     </row>
     <row r="9">
@@ -821,16 +821,16 @@
         <v>6379</v>
       </c>
       <c r="I10" t="n">
-        <v>6322.823995085018</v>
+        <v>6445.275628283467</v>
       </c>
       <c r="J10" t="n">
-        <v>6576.681789181166</v>
+        <v>6607.426048953311</v>
       </c>
       <c r="K10" t="n">
-        <v>7933.336180962516</v>
+        <v>7492.998979963005</v>
       </c>
       <c r="L10" t="n">
-        <v>7910.23282522597</v>
+        <v>7588.349966075906</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>1412</v>
       </c>
       <c r="I11" t="n">
-        <v>1759.017227557016</v>
+        <v>1793.083418946496</v>
       </c>
       <c r="J11" t="n">
-        <v>1829.640770694048</v>
+        <v>1838.193860678796</v>
       </c>
       <c r="K11" t="n">
-        <v>2207.063651488975</v>
+        <v>2084.561313436473</v>
       </c>
       <c r="L11" t="n">
-        <v>2200.636270181738</v>
+        <v>2111.08807226568</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>4967</v>
       </c>
       <c r="I12" t="n">
-        <v>4563.806767528002</v>
+        <v>4652.19220933697</v>
       </c>
       <c r="J12" t="n">
-        <v>4747.041018487118</v>
+        <v>4769.232188274515</v>
       </c>
       <c r="K12" t="n">
-        <v>5726.272529473541</v>
+        <v>5408.437666526532</v>
       </c>
       <c r="L12" t="n">
-        <v>5709.596555044232</v>
+        <v>5477.261893810226</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>683.0811554332876</v>
       </c>
       <c r="I13" t="n">
-        <v>661.1386515870399</v>
+        <v>672.5188416045476</v>
       </c>
       <c r="J13" t="n">
-        <v>635.8849804626241</v>
+        <v>664.3558573346489</v>
       </c>
       <c r="K13" t="n">
-        <v>619.9621550615594</v>
+        <v>644.6429987098803</v>
       </c>
       <c r="L13" t="n">
-        <v>589.9717671559304</v>
+        <v>627.7305814663702</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37573.42029595308</v>
+        <v>37844.42512770733</v>
       </c>
       <c r="J2" t="n">
-        <v>39504.94880574507</v>
+        <v>40111.19898722932</v>
       </c>
       <c r="K2" t="n">
-        <v>41775.05756889316</v>
+        <v>42994.59180118204</v>
       </c>
       <c r="L2" t="n">
-        <v>44111.92671599253</v>
+        <v>45293.06330655573</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>25522.69955892515</v>
+        <v>25525.95214438251</v>
       </c>
       <c r="J3" t="n">
-        <v>26766.56322744709</v>
+        <v>26672.38427629613</v>
       </c>
       <c r="K3" t="n">
-        <v>28026.54928119954</v>
+        <v>29842.66033570603</v>
       </c>
       <c r="L3" t="n">
-        <v>29897.77775339435</v>
+        <v>30018.52815856739</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>12050.72073702793</v>
+        <v>12318.47298332482</v>
       </c>
       <c r="J4" t="n">
-        <v>12738.38557829797</v>
+        <v>13438.81471093319</v>
       </c>
       <c r="K4" t="n">
-        <v>13748.50828769361</v>
+        <v>13151.93146547601</v>
       </c>
       <c r="L4" t="n">
-        <v>14214.14896259818</v>
+        <v>15274.53514798834</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>4311</v>
       </c>
       <c r="I5" t="n">
-        <v>4291.749199341269</v>
+        <v>4702.840795627079</v>
       </c>
       <c r="J5" t="n">
-        <v>4883.666966530312</v>
+        <v>4853.690728067355</v>
       </c>
       <c r="K5" t="n">
-        <v>4944.961701493958</v>
+        <v>5240.343964199505</v>
       </c>
       <c r="L5" t="n">
-        <v>5384.531025349157</v>
+        <v>5628.46615210018</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>1204</v>
       </c>
       <c r="I6" t="n">
-        <v>1183.034545870928</v>
+        <v>1027.99020429405</v>
       </c>
       <c r="J6" t="n">
-        <v>1077.439950419135</v>
+        <v>1103.172611046734</v>
       </c>
       <c r="K6" t="n">
-        <v>1144.211504315536</v>
+        <v>1072.484051711473</v>
       </c>
       <c r="L6" t="n">
-        <v>1033.743098444153</v>
+        <v>956.3961260693515</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>6427</v>
       </c>
       <c r="I7" t="n">
-        <v>6871.695628283467</v>
+        <v>6844.6395344772</v>
       </c>
       <c r="J7" t="n">
-        <v>7046.638648953311</v>
+        <v>7757.744524580786</v>
       </c>
       <c r="K7" t="n">
-        <v>7945.387957963005</v>
+        <v>7107.2244624929</v>
       </c>
       <c r="L7" t="n">
-        <v>8054.310613415906</v>
+        <v>8928.771901336146</v>
       </c>
     </row>
     <row r="8">
@@ -741,16 +741,16 @@
         <v>414</v>
       </c>
       <c r="I8" t="n">
-        <v>426.4199999999999</v>
+        <v>426.4199999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>439.2125999999999</v>
+        <v>439.2126</v>
       </c>
       <c r="K8" t="n">
         <v>452.388978</v>
       </c>
       <c r="L8" t="n">
-        <v>465.9606473399999</v>
+        <v>465.96064734</v>
       </c>
     </row>
     <row r="9">
@@ -821,16 +821,16 @@
         <v>6379</v>
       </c>
       <c r="I10" t="n">
-        <v>6445.275628283467</v>
+        <v>6418.2195344772</v>
       </c>
       <c r="J10" t="n">
-        <v>6607.426048953311</v>
+        <v>7318.531924580786</v>
       </c>
       <c r="K10" t="n">
-        <v>7492.998979963005</v>
+        <v>6654.8354844929</v>
       </c>
       <c r="L10" t="n">
-        <v>7588.349966075906</v>
+        <v>8462.811253996146</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>1412</v>
       </c>
       <c r="I11" t="n">
-        <v>1793.083418946496</v>
+        <v>1785.556381162016</v>
       </c>
       <c r="J11" t="n">
-        <v>1838.193860678796</v>
+        <v>2036.024369138004</v>
       </c>
       <c r="K11" t="n">
-        <v>2084.561313436473</v>
+        <v>1851.383222572741</v>
       </c>
       <c r="L11" t="n">
-        <v>2111.08807226568</v>
+        <v>2354.364252573577</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>4967</v>
       </c>
       <c r="I12" t="n">
-        <v>4652.19220933697</v>
+        <v>4632.663153315184</v>
       </c>
       <c r="J12" t="n">
-        <v>4769.232188274515</v>
+        <v>5282.507555442782</v>
       </c>
       <c r="K12" t="n">
-        <v>5408.437666526532</v>
+        <v>4803.452261920159</v>
       </c>
       <c r="L12" t="n">
-        <v>5477.261893810226</v>
+        <v>6108.447001422569</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>683.0811554332876</v>
       </c>
       <c r="I13" t="n">
-        <v>672.5188416045476</v>
+        <v>660.8104950043526</v>
       </c>
       <c r="J13" t="n">
-        <v>664.3558573346489</v>
+        <v>649.8925043455586</v>
       </c>
       <c r="K13" t="n">
-        <v>644.6429987098803</v>
+        <v>629.219771210367</v>
       </c>
       <c r="L13" t="n">
-        <v>627.7305814663702</v>
+        <v>607.3841176573693</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37844.42512770733</v>
+        <v>37932.00998776064</v>
       </c>
       <c r="J2" t="n">
-        <v>40111.19898722932</v>
+        <v>39956.94093524866</v>
       </c>
       <c r="K2" t="n">
-        <v>42994.59180118204</v>
+        <v>42540.24443886983</v>
       </c>
       <c r="L2" t="n">
-        <v>45293.06330655573</v>
+        <v>44630.55605662582</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>25525.95214438251</v>
+        <v>25327.83176236643</v>
       </c>
       <c r="J3" t="n">
-        <v>26672.38427629613</v>
+        <v>26848.35583815927</v>
       </c>
       <c r="K3" t="n">
-        <v>29842.66033570603</v>
+        <v>28984.4698272877</v>
       </c>
       <c r="L3" t="n">
-        <v>30018.52815856739</v>
+        <v>29551.96815199947</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>12318.47298332482</v>
+        <v>12604.17822539421</v>
       </c>
       <c r="J4" t="n">
-        <v>13438.81471093319</v>
+        <v>13108.58509708939</v>
       </c>
       <c r="K4" t="n">
-        <v>13151.93146547601</v>
+        <v>13555.77461158214</v>
       </c>
       <c r="L4" t="n">
-        <v>15274.53514798834</v>
+        <v>15078.58790462635</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>4311</v>
       </c>
       <c r="I5" t="n">
-        <v>4702.840795627079</v>
+        <v>4582.414279238152</v>
       </c>
       <c r="J5" t="n">
-        <v>4853.690728067355</v>
+        <v>4422.532154358221</v>
       </c>
       <c r="K5" t="n">
-        <v>5240.343964199505</v>
+        <v>5051.928184340576</v>
       </c>
       <c r="L5" t="n">
-        <v>5628.46615210018</v>
+        <v>5388.290002099316</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>1204</v>
       </c>
       <c r="I6" t="n">
-        <v>1027.99020429405</v>
+        <v>1166.502634592091</v>
       </c>
       <c r="J6" t="n">
-        <v>1103.172611046734</v>
+        <v>1245.530224332527</v>
       </c>
       <c r="K6" t="n">
-        <v>1072.484051711473</v>
+        <v>1217.167384507367</v>
       </c>
       <c r="L6" t="n">
-        <v>956.3961260693515</v>
+        <v>1157.025833483892</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>6427</v>
       </c>
       <c r="I7" t="n">
-        <v>6844.6395344772</v>
+        <v>7146.886970211991</v>
       </c>
       <c r="J7" t="n">
-        <v>7757.744524580786</v>
+        <v>7751.905274481775</v>
       </c>
       <c r="K7" t="n">
-        <v>7107.2244624929</v>
+        <v>7590.970888861037</v>
       </c>
       <c r="L7" t="n">
-        <v>8928.771901336146</v>
+        <v>8822.528527414121</v>
       </c>
     </row>
     <row r="8">
@@ -750,7 +750,7 @@
         <v>452.388978</v>
       </c>
       <c r="L8" t="n">
-        <v>465.96064734</v>
+        <v>465.9606473400001</v>
       </c>
     </row>
     <row r="9">
@@ -821,16 +821,16 @@
         <v>6379</v>
       </c>
       <c r="I10" t="n">
-        <v>6418.2195344772</v>
+        <v>6720.466970211991</v>
       </c>
       <c r="J10" t="n">
-        <v>7318.531924580786</v>
+        <v>7312.692674481775</v>
       </c>
       <c r="K10" t="n">
-        <v>6654.8354844929</v>
+        <v>7138.581910861037</v>
       </c>
       <c r="L10" t="n">
-        <v>8462.811253996146</v>
+        <v>8356.567880074121</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>1412</v>
       </c>
       <c r="I11" t="n">
-        <v>1785.556381162016</v>
+        <v>1869.64198070673</v>
       </c>
       <c r="J11" t="n">
-        <v>2036.024369138004</v>
+        <v>2034.399882748985</v>
       </c>
       <c r="K11" t="n">
-        <v>1851.383222572741</v>
+        <v>1985.962059246377</v>
       </c>
       <c r="L11" t="n">
-        <v>2354.364252573577</v>
+        <v>2324.807218376848</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>4967</v>
       </c>
       <c r="I12" t="n">
-        <v>4632.663153315184</v>
+        <v>4850.82498950526</v>
       </c>
       <c r="J12" t="n">
-        <v>5282.507555442782</v>
+        <v>5278.292791732789</v>
       </c>
       <c r="K12" t="n">
-        <v>4803.452261920159</v>
+        <v>5152.61985161466</v>
       </c>
       <c r="L12" t="n">
-        <v>6108.447001422569</v>
+        <v>6031.760661697273</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>683.0811554332876</v>
       </c>
       <c r="I13" t="n">
-        <v>660.8104950043526</v>
+        <v>668.362492437951</v>
       </c>
       <c r="J13" t="n">
-        <v>649.8925043455586</v>
+        <v>656.9569492595193</v>
       </c>
       <c r="K13" t="n">
-        <v>629.219771210367</v>
+        <v>648.4980846184362</v>
       </c>
       <c r="L13" t="n">
-        <v>607.3841176573693</v>
+        <v>622.0779569004911</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>37932.00998776064</v>
+        <v>38052.20221872158</v>
       </c>
       <c r="J2" t="n">
-        <v>39956.94093524866</v>
+        <v>40054.97343562167</v>
       </c>
       <c r="K2" t="n">
-        <v>42540.24443886983</v>
+        <v>42474.71319521236</v>
       </c>
       <c r="L2" t="n">
-        <v>44630.55605662582</v>
+        <v>44839.12771552642</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>25327.83176236643</v>
+        <v>25384.80103728571</v>
       </c>
       <c r="J3" t="n">
-        <v>26848.35583815927</v>
+        <v>26683.92995171348</v>
       </c>
       <c r="K3" t="n">
-        <v>28984.4698272877</v>
+        <v>28710.97153537873</v>
       </c>
       <c r="L3" t="n">
-        <v>29551.96815199947</v>
+        <v>30011.42097599035</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>12604.17822539421</v>
+        <v>12667.40118143587</v>
       </c>
       <c r="J4" t="n">
-        <v>13108.58509708939</v>
+        <v>13371.04348390819</v>
       </c>
       <c r="K4" t="n">
-        <v>13555.77461158214</v>
+        <v>13763.74165983363</v>
       </c>
       <c r="L4" t="n">
-        <v>15078.58790462635</v>
+        <v>14827.70673953607</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>4311</v>
       </c>
       <c r="I5" t="n">
-        <v>4582.414279238152</v>
+        <v>5027.292128328368</v>
       </c>
       <c r="J5" t="n">
-        <v>4422.532154358221</v>
+        <v>4588.072413737714</v>
       </c>
       <c r="K5" t="n">
-        <v>5051.928184340576</v>
+        <v>4832.337035446986</v>
       </c>
       <c r="L5" t="n">
-        <v>5388.290002099316</v>
+        <v>5223.775144700283</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>1204</v>
       </c>
       <c r="I6" t="n">
-        <v>1166.502634592091</v>
+        <v>1157.526898176185</v>
       </c>
       <c r="J6" t="n">
-        <v>1245.530224332527</v>
+        <v>1136.363353000138</v>
       </c>
       <c r="K6" t="n">
-        <v>1217.167384507367</v>
+        <v>1349.393685482634</v>
       </c>
       <c r="L6" t="n">
-        <v>1157.025833483892</v>
+        <v>997.5251588288671</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>6427</v>
       </c>
       <c r="I7" t="n">
-        <v>7146.886970211991</v>
+        <v>6771.963879475368</v>
       </c>
       <c r="J7" t="n">
-        <v>7751.905274481775</v>
+        <v>7930.698555420371</v>
       </c>
       <c r="K7" t="n">
-        <v>7590.970888861037</v>
+        <v>7919.35936027467</v>
       </c>
       <c r="L7" t="n">
-        <v>8822.528527414121</v>
+        <v>8855.787725714135</v>
       </c>
     </row>
     <row r="8">
@@ -741,7 +741,7 @@
         <v>414</v>
       </c>
       <c r="I8" t="n">
-        <v>426.4199999999998</v>
+        <v>426.42</v>
       </c>
       <c r="J8" t="n">
         <v>439.2126</v>
@@ -750,7 +750,7 @@
         <v>452.388978</v>
       </c>
       <c r="L8" t="n">
-        <v>465.9606473400001</v>
+        <v>465.96064734</v>
       </c>
     </row>
     <row r="9">
@@ -821,16 +821,16 @@
         <v>6379</v>
       </c>
       <c r="I10" t="n">
-        <v>6720.466970211991</v>
+        <v>6345.543879475368</v>
       </c>
       <c r="J10" t="n">
-        <v>7312.692674481775</v>
+        <v>7491.485955420371</v>
       </c>
       <c r="K10" t="n">
-        <v>7138.581910861037</v>
+        <v>7466.97038227467</v>
       </c>
       <c r="L10" t="n">
-        <v>8356.567880074121</v>
+        <v>8389.827078374135</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>1412</v>
       </c>
       <c r="I11" t="n">
-        <v>1869.64198070673</v>
+        <v>1765.337926675289</v>
       </c>
       <c r="J11" t="n">
-        <v>2034.399882748985</v>
+        <v>2084.14038819195</v>
       </c>
       <c r="K11" t="n">
-        <v>1985.962059246377</v>
+        <v>2077.320126305767</v>
       </c>
       <c r="L11" t="n">
-        <v>2324.807218376848</v>
+        <v>2334.05996727986</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>4967</v>
       </c>
       <c r="I12" t="n">
-        <v>4850.82498950526</v>
+        <v>4580.205952800079</v>
       </c>
       <c r="J12" t="n">
-        <v>5278.292791732789</v>
+        <v>5407.345567228422</v>
       </c>
       <c r="K12" t="n">
-        <v>5152.61985161466</v>
+        <v>5389.650255968903</v>
       </c>
       <c r="L12" t="n">
-        <v>6031.760661697273</v>
+        <v>6055.767111094276</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>683.0811554332876</v>
       </c>
       <c r="I13" t="n">
-        <v>668.362492437951</v>
+        <v>670.5399404309048</v>
       </c>
       <c r="J13" t="n">
-        <v>656.9569492595193</v>
+        <v>656.8743223705012</v>
       </c>
       <c r="K13" t="n">
-        <v>648.4980846184362</v>
+        <v>638.6297364010496</v>
       </c>
       <c r="L13" t="n">
-        <v>622.0779569004911</v>
+        <v>625.8035010826632</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_IS.xlsx
+++ b/FSV_OP_IS.xlsx
@@ -501,16 +501,16 @@
         <v>35466</v>
       </c>
       <c r="I2" t="n">
-        <v>38052.20221872158</v>
+        <v>37345.84219547235</v>
       </c>
       <c r="J2" t="n">
-        <v>40054.97343562167</v>
+        <v>39328.12527321235</v>
       </c>
       <c r="K2" t="n">
-        <v>42474.71319521236</v>
+        <v>42000.64984225824</v>
       </c>
       <c r="L2" t="n">
-        <v>44839.12771552642</v>
+        <v>44242.80242986348</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>23825</v>
       </c>
       <c r="I3" t="n">
-        <v>25384.80103728571</v>
+        <v>24914.19461311235</v>
       </c>
       <c r="J3" t="n">
-        <v>26683.92995171348</v>
+        <v>26985.72570664781</v>
       </c>
       <c r="K3" t="n">
-        <v>28710.97153537873</v>
+        <v>28618.20868012691</v>
       </c>
       <c r="L3" t="n">
-        <v>30011.42097599035</v>
+        <v>29935.36765790442</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>11641</v>
       </c>
       <c r="I4" t="n">
-        <v>12667.40118143587</v>
+        <v>12431.64758236</v>
       </c>
       <c r="J4" t="n">
-        <v>13371.04348390819</v>
+        <v>12342.39956656455</v>
       </c>
       <c r="K4" t="n">
-        <v>13763.74165983363</v>
+        <v>13382.44116213133</v>
       </c>
       <c r="L4" t="n">
-        <v>14827.70673953607</v>
+        <v>14307.43477195906</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>4311</v>
       </c>
       <c r="I5" t="n">
-        <v>5027.292128328368</v>
+        <v>4521.378014681686</v>
       </c>
       <c r="J5" t="n">
-        <v>4588.072413737714</v>
+        <v>4570.813196743183</v>
       </c>
       <c r="K5" t="n">
-        <v>4832.337035446986</v>
+        <v>5259.08830781682</v>
       </c>
       <c r="L5" t="n">
-        <v>5223.775144700283</v>
+        <v>4809.116670538397</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>1204</v>
       </c>
       <c r="I6" t="n">
-        <v>1157.526898176185</v>
+        <v>1155.706248943362</v>
       </c>
       <c r="J6" t="n">
-        <v>1136.363353000138</v>
+        <v>1215.667645208985</v>
       </c>
       <c r="K6" t="n">
-        <v>1349.393685482634</v>
+        <v>1237.979905295923</v>
       </c>
       <c r="L6" t="n">
-        <v>997.5251588288671</v>
+        <v>1154.955165647661</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>6427</v>
       </c>
       <c r="I7" t="n">
-        <v>6771.963879475368</v>
+        <v>7043.489880970794</v>
       </c>
       <c r="J7" t="n">
-        <v>7930.698555420371</v>
+        <v>6859.835635914627</v>
       </c>
       <c r="K7" t="n">
-        <v>7919.35936027467</v>
+        <v>7194.867925342564</v>
       </c>
       <c r="L7" t="n">
-        <v>8855.787725714135</v>
+        <v>8632.101727184912</v>
       </c>
     </row>
     <row r="8">
@@ -741,10 +741,10 @@
         <v>414</v>
       </c>
       <c r="I8" t="n">
-        <v>426.42</v>
+        <v>426.4199999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>439.2126</v>
+        <v>439.2125999999999</v>
       </c>
       <c r="K8" t="n">
         <v>452.388978</v>
@@ -821,16 +821,16 @@
         <v>6379</v>
       </c>
       <c r="I10" t="n">
-        <v>6345.543879475368</v>
+        <v>6617.069880970794</v>
       </c>
       <c r="J10" t="n">
-        <v>7491.485955420371</v>
+        <v>6420.623035914628</v>
       </c>
       <c r="K10" t="n">
-        <v>7466.97038227467</v>
+        <v>6742.478947342564</v>
       </c>
       <c r="L10" t="n">
-        <v>8389.827078374135</v>
+        <v>8166.141079844912</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>1412</v>
       </c>
       <c r="I11" t="n">
-        <v>1765.337926675289</v>
+        <v>1840.876786325882</v>
       </c>
       <c r="J11" t="n">
-        <v>2084.14038819195</v>
+        <v>1786.22503814791</v>
       </c>
       <c r="K11" t="n">
-        <v>2077.320126305767</v>
+        <v>1875.765739175315</v>
       </c>
       <c r="L11" t="n">
-        <v>2334.05996727986</v>
+        <v>2271.830253898299</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>4967</v>
       </c>
       <c r="I12" t="n">
-        <v>4580.205952800079</v>
+        <v>4776.193094644912</v>
       </c>
       <c r="J12" t="n">
-        <v>5407.345567228422</v>
+        <v>4634.397997766717</v>
       </c>
       <c r="K12" t="n">
-        <v>5389.650255968903</v>
+        <v>4866.71320816725</v>
       </c>
       <c r="L12" t="n">
-        <v>6055.767111094276</v>
+        <v>5894.310825946613</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>683.0811554332876</v>
       </c>
       <c r="I13" t="n">
-        <v>670.5399404309048</v>
+        <v>663.9619121301469</v>
       </c>
       <c r="J13" t="n">
-        <v>656.8743223705012</v>
+        <v>655.951401554825</v>
       </c>
       <c r="K13" t="n">
-        <v>638.6297364010496</v>
+        <v>640.2054070072832</v>
       </c>
       <c r="L13" t="n">
-        <v>625.8035010826632</v>
+        <v>627.6351917197467</v>
       </c>
     </row>
   </sheetData>
